--- a/scripts/output/merged_data_dictionary.xlsx
+++ b/scripts/output/merged_data_dictionary.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamam\Desktop\SMU\Projects\VABI-Dashboard\scripts\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31261A5A-FE83-4E57-BF0B-2E155E63A6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="12257" yWindow="0" windowWidth="12514" windowHeight="14794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,146 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>nitrous_oxide_per_capita</t>
+  </si>
+  <si>
+    <t>methane_per_capita</t>
+  </si>
+  <si>
+    <t>gas_co2_per_capita</t>
+  </si>
+  <si>
+    <t>total_ghg</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>co2_per_capita</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>temperature_change_from_ch4</t>
+  </si>
+  <si>
+    <t>temperature_change_from_ghg</t>
+  </si>
+  <si>
+    <t>temperature_change_from_co2</t>
+  </si>
+  <si>
+    <t>temperature_change_from_n2o</t>
+  </si>
+  <si>
+    <t>land_use_change_co2_per_capita</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>methane</t>
+  </si>
+  <si>
+    <t>nitrous_oxide</t>
+  </si>
+  <si>
+    <t>emissions_merged_no2_ch4_.csv</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Total greenhouse gas emissions including land-use change and forestry - Emissions are measured in million tonnes of carbon dioxide-equivalents.</t>
+  </si>
+  <si>
+    <t>Total nitrous oxide emissions per capita including land-use change and forestry - Emissions are measured in tonnes of carbon dioxide-equivalents per person.</t>
+  </si>
+  <si>
+    <t>Total methane emissions per capita including land-use change and forestry - Emissions are measured in tonnes of carbon dioxide-equivalents per person.</t>
+  </si>
+  <si>
+    <t>Annual CO₂ emissions from gas (per capita) - Annual emissions of carbon dioxide (CO₂) from gas, measured in tonnes per person.</t>
+  </si>
+  <si>
+    <t>Country - Geographic location.</t>
+  </si>
+  <si>
+    <t>Annual CO₂ emissions (per capita) - Annual total emissions of carbon dioxide (CO₂), excluding land-use change, measured in tonnes per person.</t>
+  </si>
+  <si>
+    <t>country code</t>
+  </si>
+  <si>
+    <t>Population - Population by country, available from 10,000 BCE to 2100, based on data and estimates from different sources.</t>
+  </si>
+  <si>
+    <t>Change in global mean surface temperature caused by methane emissions - Measured in °C.</t>
+  </si>
+  <si>
+    <t>Change in global mean surface temperature caused by CO₂ emissions - Measured in °C.</t>
+  </si>
+  <si>
+    <t>Change in global mean surface temperature caused by greenhouse gas emissions - Measured in °C.</t>
+  </si>
+  <si>
+    <t>Change in global mean surface temperature caused by nitrous oxide emissions - Measured in °C.</t>
+  </si>
+  <si>
+    <t>Annual CO₂ emissions from land-use change per capita - Annual emissions of carbon dioxide (CO₂) from land-use change, measured in tonnes per person.</t>
+  </si>
+  <si>
+    <t>Annual CO₂ emissions - Annual total emissions of carbon dioxide (CO₂), excluding land-use change, measured in million tonnes.</t>
+  </si>
+  <si>
+    <t>Total methane emissions including land-use change and forestry - Emissions are measured in million tonnes of carbon dioxide-equivalents.</t>
+  </si>
+  <si>
+    <t>Total nitrous oxide emissions including land-use change and forestry - Emissions are measured in million tonn</t>
+  </si>
+  <si>
+    <t>Other greenhouse gas emissions, HFC, PFC and SF6 (thousand metric tons of CO2 equivalent)</t>
+  </si>
+  <si>
+    <t>HFC/PFC/SF6</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +171,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +210,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +528,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>